--- a/configPoints.xlsx
+++ b/configPoints.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0E9958-110A-4506-B308-7D4F44C3C13C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC77B3AB-FF3E-4138-B87A-D40B9512FADF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,6 +12,19 @@
     <sheet name="SETTINGS" sheetId="6" r:id="rId2"/>
     <sheet name="PATTERN" sheetId="1" r:id="rId3"/>
     <sheet name="ЩО-0.1-81" sheetId="8" r:id="rId4"/>
+    <sheet name="ЩО-0.2-82" sheetId="10" r:id="rId5"/>
+    <sheet name="ЩО-0.3-83" sheetId="11" r:id="rId6"/>
+    <sheet name="ЩО-1.1-84" sheetId="12" r:id="rId7"/>
+    <sheet name="ЩО-1.2-85" sheetId="13" r:id="rId8"/>
+    <sheet name="ЩО-2.1-86" sheetId="4" r:id="rId9"/>
+    <sheet name="ЩО-2.1-87" sheetId="7" r:id="rId10"/>
+    <sheet name="ЩО-2.2-88" sheetId="14" r:id="rId11"/>
+    <sheet name="ЩО-2.2-89" sheetId="15" r:id="rId12"/>
+    <sheet name="ЩО-3.1-90" sheetId="16" r:id="rId13"/>
+    <sheet name="ЩО-3.1-91" sheetId="17" r:id="rId14"/>
+    <sheet name="ЩО-3.1-92" sheetId="18" r:id="rId15"/>
+    <sheet name="ЩО-4.1-93" sheetId="19" r:id="rId16"/>
+    <sheet name="ЩО-2-94" sheetId="20" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="диммирование">DESCRIPTION!$C$16:$C$17</definedName>
@@ -26,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="493">
   <si>
     <t>Номер помещения</t>
   </si>
@@ -77,6 +90,9 @@
   </si>
   <si>
     <t>Содержания таблицы с данными по контроллеру:</t>
+  </si>
+  <si>
+    <t>10.119.140.86</t>
   </si>
   <si>
     <t>1.1</t>
@@ -174,6 +190,36 @@
     <t>IP port Helvar controller:</t>
   </si>
   <si>
+    <t>19D, A19D</t>
+  </si>
+  <si>
+    <t>18D</t>
+  </si>
+  <si>
+    <t>16D A16D</t>
+  </si>
+  <si>
+    <t>17D</t>
+  </si>
+  <si>
+    <t>2.24</t>
+  </si>
+  <si>
+    <t>2.23</t>
+  </si>
+  <si>
+    <t>2.20.1</t>
+  </si>
+  <si>
+    <t>2.20.2</t>
+  </si>
+  <si>
+    <t>33D</t>
+  </si>
+  <si>
+    <t>34D</t>
+  </si>
+  <si>
     <t>10.119.140.81</t>
   </si>
   <si>
@@ -345,16 +391,1135 @@
     <t>Out Doors</t>
   </si>
   <si>
-    <t>Lift shafl</t>
-  </si>
-  <si>
     <t>Fire hydrant</t>
   </si>
   <si>
     <t>Exits</t>
   </si>
   <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>30 A30</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>52 A52</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>0.65.1</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>0.94.2</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>0.94.3</t>
+  </si>
+  <si>
+    <t>0.94.4</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>0.94.1</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.02.1</t>
+  </si>
+  <si>
+    <t>0.02.2</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>44 A44</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>51 A51</t>
+  </si>
+  <si>
+    <t>0.73.1</t>
+  </si>
+  <si>
+    <t>53 A53</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>55 A55</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>0.52.1</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.83.2</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.12.1</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>0.83.3</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>0.13.1</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>LK4</t>
+  </si>
+  <si>
+    <t>L1 AL1</t>
+  </si>
+  <si>
+    <t>LK3</t>
+  </si>
+  <si>
+    <t>L2 AL2</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>80 A80</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>82 A82</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>83 A83</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>84 A84</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>85 A85</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>97 A97</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>37D A37D</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>58D A58D</t>
+  </si>
+  <si>
+    <t>1.29</t>
+  </si>
+  <si>
+    <t>28D</t>
+  </si>
+  <si>
+    <t>27D</t>
+  </si>
+  <si>
+    <t>10.119.140.82</t>
+  </si>
+  <si>
+    <t>ЩО-0.2</t>
+  </si>
+  <si>
+    <t>10.119.140.83</t>
+  </si>
+  <si>
+    <t>ЩО-0.3</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>64D</t>
+  </si>
+  <si>
+    <t>10.119.140.84</t>
+  </si>
+  <si>
+    <t>ЩО-1.1</t>
+  </si>
+  <si>
+    <t>10.119.140.85</t>
+  </si>
+  <si>
+    <t>ЩО-1.2</t>
+  </si>
+  <si>
+    <t>10.119.140.88</t>
+  </si>
+  <si>
+    <t>ЩО-2.2</t>
+  </si>
+  <si>
+    <t>10.119.140.89</t>
+  </si>
+  <si>
+    <t>10.119.140.90</t>
+  </si>
+  <si>
+    <t>ЩО-3.1</t>
+  </si>
+  <si>
+    <t>10.119.140.91</t>
+  </si>
+  <si>
+    <t>10.119.140.92</t>
+  </si>
+  <si>
+    <t>10.119.140.93</t>
+  </si>
+  <si>
+    <t>ЩО-4.1</t>
+  </si>
+  <si>
+    <t>ЩО-2</t>
+  </si>
+  <si>
+    <t>10.119.140.94</t>
+  </si>
+  <si>
     <t>na</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>1.19</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>10 A10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1.20.1</t>
+  </si>
+  <si>
+    <t>1.15.1</t>
+  </si>
+  <si>
+    <t>38 A38</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>39 A39</t>
+  </si>
+  <si>
+    <t>N Building</t>
+  </si>
+  <si>
+    <t>1.04 1.06</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>1.09</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>22 A22</t>
+  </si>
+  <si>
+    <t>1.27</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>A31</t>
+  </si>
+  <si>
+    <t>30 A30 32</t>
+  </si>
+  <si>
+    <t>1.02 1.04</t>
+  </si>
+  <si>
+    <t>29 A29 23</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>35D</t>
+  </si>
+  <si>
+    <t>36D</t>
+  </si>
+  <si>
+    <t>12D</t>
+  </si>
+  <si>
+    <t>2.27.2</t>
+  </si>
+  <si>
+    <t>2.29</t>
+  </si>
+  <si>
+    <t>2.37</t>
+  </si>
+  <si>
+    <t>2.31</t>
+  </si>
+  <si>
+    <t>2.36</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>20 A20</t>
+  </si>
+  <si>
+    <t>2.27</t>
+  </si>
+  <si>
+    <t>74 A74</t>
+  </si>
+  <si>
+    <t>2.28</t>
+  </si>
+  <si>
+    <t>75 A75</t>
+  </si>
+  <si>
+    <t>4D</t>
+  </si>
+  <si>
+    <t>7D</t>
+  </si>
+  <si>
+    <t>11D</t>
+  </si>
+  <si>
+    <t>2.16</t>
+  </si>
+  <si>
+    <t>21D</t>
+  </si>
+  <si>
+    <t>22D</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>23D</t>
+  </si>
+  <si>
+    <t>24D</t>
+  </si>
+  <si>
+    <t>2.18.1</t>
+  </si>
+  <si>
+    <t>25D</t>
+  </si>
+  <si>
+    <t>26D</t>
+  </si>
+  <si>
+    <t>2.18.2</t>
+  </si>
+  <si>
+    <t>2.19.1</t>
+  </si>
+  <si>
+    <t>29D</t>
+  </si>
+  <si>
+    <t>2.19.2</t>
+  </si>
+  <si>
+    <t>30D</t>
+  </si>
+  <si>
+    <t>31D</t>
+  </si>
+  <si>
+    <t>32D</t>
+  </si>
+  <si>
+    <t>2.21</t>
+  </si>
+  <si>
+    <t>37D</t>
+  </si>
+  <si>
+    <t>2.22</t>
+  </si>
+  <si>
+    <t>38D</t>
+  </si>
+  <si>
+    <t>39D</t>
+  </si>
+  <si>
+    <t>40D</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>2.03</t>
+  </si>
+  <si>
+    <t>2.04</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>2.07 WC W</t>
+  </si>
+  <si>
+    <t>2.06 WC M</t>
+  </si>
+  <si>
+    <t>2.08</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>2.35</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>2.14.2</t>
+  </si>
+  <si>
+    <t>60D</t>
+  </si>
+  <si>
+    <t>59D</t>
+  </si>
+  <si>
+    <t>2.14.3</t>
+  </si>
+  <si>
+    <t>62D</t>
+  </si>
+  <si>
+    <t>61D</t>
+  </si>
+  <si>
+    <t>2.39</t>
+  </si>
+  <si>
+    <t>72 A72</t>
+  </si>
+  <si>
+    <t>2.02</t>
+  </si>
+  <si>
+    <t>41 A41</t>
+  </si>
+  <si>
+    <t>70 A70</t>
+  </si>
+  <si>
+    <t>2.38</t>
+  </si>
+  <si>
+    <t>71 A71</t>
+  </si>
+  <si>
+    <t>73 A73</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>43D</t>
+  </si>
+  <si>
+    <t>44D</t>
+  </si>
+  <si>
+    <t>2.09</t>
+  </si>
+  <si>
+    <t>45D</t>
+  </si>
+  <si>
+    <t>46D</t>
+  </si>
+  <si>
+    <t>2.11.1</t>
+  </si>
+  <si>
+    <t>47D</t>
+  </si>
+  <si>
+    <t>48D</t>
+  </si>
+  <si>
+    <t>2.11.2</t>
+  </si>
+  <si>
+    <t>50D</t>
+  </si>
+  <si>
+    <t>49D</t>
+  </si>
+  <si>
+    <t>2.11.3</t>
+  </si>
+  <si>
+    <t>51D</t>
+  </si>
+  <si>
+    <t>52D</t>
+  </si>
+  <si>
+    <t>3.20</t>
+  </si>
+  <si>
+    <t>4 A4</t>
+  </si>
+  <si>
+    <t>3.03</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>3.04</t>
+  </si>
+  <si>
+    <t>3.08</t>
+  </si>
+  <si>
+    <t>3.34</t>
+  </si>
+  <si>
+    <t>3.07 WC W</t>
+  </si>
+  <si>
+    <t>3.06 WC M</t>
+  </si>
+  <si>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>3.22</t>
+  </si>
+  <si>
+    <t>3.21</t>
+  </si>
+  <si>
+    <t>3.28</t>
+  </si>
+  <si>
+    <t>3.23</t>
+  </si>
+  <si>
+    <t>49 A49</t>
+  </si>
+  <si>
+    <t>3.26</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>3.02</t>
+  </si>
+  <si>
+    <t>17 A17</t>
+  </si>
+  <si>
+    <t>3.02.1</t>
+  </si>
+  <si>
+    <t>28 A28</t>
+  </si>
+  <si>
+    <t>3.01</t>
+  </si>
+  <si>
+    <t>19 A19</t>
+  </si>
+  <si>
+    <t>3.29</t>
+  </si>
+  <si>
+    <t>40 A40</t>
+  </si>
+  <si>
+    <t>2D A2D</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>29D A29D</t>
+  </si>
+  <si>
+    <t>30D A30D</t>
+  </si>
+  <si>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>43 A43</t>
+  </si>
+  <si>
+    <t>3.09.1</t>
+  </si>
+  <si>
+    <t>3.09.2</t>
+  </si>
+  <si>
+    <t>3.09.3</t>
+  </si>
+  <si>
+    <t>3.09.4</t>
+  </si>
+  <si>
+    <t>3.24</t>
+  </si>
+  <si>
+    <t>6D</t>
+  </si>
+  <si>
+    <t>14D</t>
+  </si>
+  <si>
+    <t>4.02</t>
+  </si>
+  <si>
+    <t>4.01</t>
+  </si>
+  <si>
+    <t>4.03.6</t>
+  </si>
+  <si>
+    <t>4.03.4</t>
+  </si>
+  <si>
+    <t>4.03.5</t>
+  </si>
+  <si>
+    <t>4.03.2</t>
+  </si>
+  <si>
+    <t>4.03.3</t>
+  </si>
+  <si>
+    <t>4.03.1</t>
+  </si>
+  <si>
+    <t>4.10</t>
+  </si>
+  <si>
+    <t>13 A13</t>
+  </si>
+  <si>
+    <t>4.12</t>
+  </si>
+  <si>
+    <t>4.13</t>
+  </si>
+  <si>
+    <t>4.05</t>
+  </si>
+  <si>
+    <t>4.11</t>
+  </si>
+  <si>
+    <t>4.04</t>
+  </si>
+  <si>
+    <t>4.08</t>
+  </si>
+  <si>
+    <t>11D A11D</t>
+  </si>
+  <si>
+    <t>4.09</t>
+  </si>
+  <si>
+    <t>12D A12D</t>
+  </si>
+  <si>
+    <t>2D A2D 3D A3D</t>
+  </si>
+  <si>
+    <t>4.06</t>
+  </si>
+  <si>
+    <t>2.25 2f Ladder</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>139D</t>
+  </si>
+  <si>
+    <t>137D A137D</t>
+  </si>
+  <si>
+    <t>138D A138D</t>
+  </si>
+  <si>
+    <t>329D</t>
+  </si>
+  <si>
+    <t>330D</t>
+  </si>
+  <si>
+    <t>331D</t>
+  </si>
+  <si>
+    <t>332D</t>
+  </si>
+  <si>
+    <t>333D</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>263D A236</t>
+  </si>
+  <si>
+    <t>328D</t>
+  </si>
+  <si>
+    <t>3.35</t>
+  </si>
+  <si>
+    <t>327D</t>
+  </si>
+  <si>
+    <t>3.36</t>
+  </si>
+  <si>
+    <t>334D</t>
+  </si>
+  <si>
+    <t>PKR</t>
+  </si>
+  <si>
+    <t>exitP</t>
+  </si>
+  <si>
+    <t>AnP</t>
+  </si>
+  <si>
+    <t>List Shafls</t>
+  </si>
+  <si>
+    <t>An</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>53D</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>56D</t>
+  </si>
+  <si>
+    <t>55D</t>
+  </si>
+  <si>
+    <t>2.14.1</t>
+  </si>
+  <si>
+    <t>58D</t>
+  </si>
+  <si>
+    <t>57D</t>
+  </si>
+  <si>
+    <t>54D</t>
+  </si>
+  <si>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>140D</t>
+  </si>
+  <si>
+    <t>Fade Time</t>
+  </si>
+  <si>
+    <t>Controller Register:</t>
   </si>
 </sst>
 </file>
@@ -869,10 +2034,10 @@
         <v>4.5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -880,15 +2045,2882 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C710A5A-C793-4706-8CC9-D17911316245}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="12">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="12">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>274</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>275</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>276</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>277</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>278</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>279</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>280</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>281</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>282</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>283</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>284</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>285</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="12">
+        <v>286</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="12">
+        <v>287</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>288</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>289</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>290</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>291</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>292</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>293</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="12"/>
+    </row>
+  </sheetData>
+  <sortState ref="A6:D31">
+    <sortCondition ref="A6"/>
+  </sortState>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{F52527BF-7981-4519-9DAF-67235EAF6472}">
+      <formula1>диммирование</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99587236-7E1B-4FF4-9D1D-9EFAAE802114}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="12">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="12">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>201</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>202</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>203</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>204</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>205</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>206</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>207</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>208</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>209</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>210</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>211</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>212</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>213</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>214</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>215</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>216</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>217</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>218</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>222</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>233</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="12"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{A2ED3173-2BF2-4C0E-AE03-F1152A0F3257}">
+      <formula1>диммирование</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0156EEAB-F65D-4BA0-B1FC-916741F3C454}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="12">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="12">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>200</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="12">
+        <v>219</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>220</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>221</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>223</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>224</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>225</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>226</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="12">
+        <v>227</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>228</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>229</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>230</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>231</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>232</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="12"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="12"/>
+    </row>
+  </sheetData>
+  <sortState ref="A6:D19">
+    <sortCondition ref="A6"/>
+  </sortState>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{219E410B-BD3E-49B9-8B40-29D566593E36}">
+      <formula1>диммирование</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2777F51E-085D-4F3F-8220-14D10029BCBF}">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="12">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="12">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>301</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>302</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>303</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>304</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>305</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>306</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>307</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>308</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>309</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>310</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="12">
+        <v>311</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>312</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>313</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>314</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>315</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>316</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="12">
+        <v>317</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>318</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>319</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>320</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="12">
+        <v>321</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>322</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>323</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>333</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>334</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>335</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>344</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A6:D32">
+    <sortCondition ref="A6"/>
+  </sortState>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{2F4A5BB2-2EE1-4A0C-B42A-8A8685577552}">
+      <formula1>диммирование</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6834BA53-A863-4FAD-B460-266310887914}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="12">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="12">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>336</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>337</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>338</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>339</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>340</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>341</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>342</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>343</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="12"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="12"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="12"/>
+    </row>
+  </sheetData>
+  <sortState ref="A6:D13">
+    <sortCondition ref="A6"/>
+  </sortState>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{546BA064-1E87-4288-BCA1-893EA4BF221E}">
+      <formula1>диммирование</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43CC718-7121-4D1A-AF69-F2EB65F783EB}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="12">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="12">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>326</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>327</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>328</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>329</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>330</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>331</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>332</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="12"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="12"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="12"/>
+    </row>
+  </sheetData>
+  <sortState ref="A6:D12">
+    <sortCondition ref="A6"/>
+  </sortState>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{D9AF7930-A561-4442-A1C8-89E69EA52DAD}">
+      <formula1>диммирование</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF27F1CB-3D99-4594-A8B6-1C9B00F1D141}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="12">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="12">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>401</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>402</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>403</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>404</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>405</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>406</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>407</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>408</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>409</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>410</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="12">
+        <v>411</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>412</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>413</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>414</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>417</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>418</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>419</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>422</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>423</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A6:D24">
+    <sortCondition ref="A6"/>
+  </sortState>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{6E8A4FB0-D02E-454A-8F7B-4447C47A6A3F}">
+      <formula1>диммирование</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F232EB7-FDD6-4758-AB3E-D8C2748D81BB}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="12">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="12">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>501</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>502</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>503</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>504</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>505</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>506</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>507</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>508</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>509</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>510</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>511</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="12">
+        <v>512</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>513</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>514</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="12"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="12"/>
+    </row>
+  </sheetData>
+  <sortState ref="A6:D18">
+    <sortCondition ref="A6"/>
+  </sortState>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{5E6BD057-F310-4CEF-B525-014B26480767}">
+      <formula1>диммирование</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -909,18 +4941,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
       <c r="C1" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="10">
         <v>777</v>
@@ -928,45 +4960,45 @@
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="45">
       <c r="A6" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30">
       <c r="A7" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="11">
         <v>24</v>
@@ -980,11 +5012,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -995,84 +5027,96 @@
     <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="12">
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E6" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E7" s="9">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1082,17 +5126,17 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87333CA0-39BE-4E21-97E2-7A7B7331CECB}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:D36"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1103,502 +5147,3148 @@
     <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="B2" s="12">
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="12">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="12">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="12">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="12">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="12">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
         <v>100</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
+      <c r="B10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
         <v>101</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
+      <c r="B11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
         <v>102</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>103</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>104</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>105</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>106</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>107</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>106</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
+      <c r="C16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>107</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>108</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>109</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>110</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
         <v>111</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
+      <c r="B21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
         <v>113</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
+      <c r="B22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
         <v>114</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
+      <c r="B23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
         <v>115</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>116</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>117</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>118</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>119</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>120</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>121</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>116</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>117</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>118</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>119</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <v>120</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1">
-        <v>121</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1">
+      <c r="D30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
         <v>122</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1">
+      <c r="B31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
         <v>123</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1">
+      <c r="B32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
         <v>124</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1">
+      <c r="B33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
         <v>125</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1">
-        <v>126</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1">
-        <v>127</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1">
-        <v>128</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1">
-        <v>129</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1">
-        <v>130</v>
-      </c>
       <c r="B34" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>128</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A5:D36">
-    <sortCondition ref="A5"/>
+  <sortState ref="A10:D37">
+    <sortCondition ref="A10"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{ED561688-7D7A-4D49-9280-148E5D6726B9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{ED561688-7D7A-4D49-9280-148E5D6726B9}">
       <formula1>диммирование</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E76851-78EE-459F-B30A-445404278BFF}">
+  <dimension ref="A1:E55"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="12">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="12">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>36</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>38</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>40</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>41</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>42</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>43</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>45</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>46</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>47</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>49</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>50</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>51</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>53</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>54</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>55</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>56</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>57</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>58</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>59</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>60</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>61</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>62</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>63</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>64</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>65</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>67</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>68</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>69</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>70</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>71</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>72</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>73</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>74</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>76</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>77</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>78</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>170</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>171</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" s="9">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A6:D55">
+    <sortCondition ref="A6"/>
+  </sortState>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{13D721A0-813A-41A0-8C5E-062B0B5E78B4}">
+      <formula1>диммирование</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="79" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCFA90B-2EAD-488C-9571-B7D4BF07806B}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="12">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="12">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>75</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>79</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>80</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>81</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>82</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>83</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>84</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>85</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>86</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>87</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>88</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>89</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>90</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>91</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>92</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>93</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>94</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>95</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>96</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>97</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>99</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="9">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A6:D26">
+    <sortCondition ref="A6"/>
+  </sortState>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{2D03C4B8-DB48-4561-A626-8F0248B479B7}">
+      <formula1>диммирование</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F009337-4AB3-4E3F-9EC9-9C14447D700E}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="12">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="12">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>175</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>176</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>177</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>178</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>179</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>180</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>181</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>182</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>183</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>184</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>185</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>186</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>187</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>188</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>189</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>190</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{62A97313-B18E-4D55-BF31-653C12850466}">
+      <formula1>диммирование</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE119B9-0280-4414-8591-38806C64F5AE}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="12">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="12">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>151</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>152</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>153</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>154</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>155</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>156</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>157</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>158</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>159</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>160</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>161</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>162</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>163</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>164</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>165</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>166</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>167</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>168</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>169</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="9">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A6:D25">
+    <sortCondition ref="A6"/>
+  </sortState>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{6DB866DF-6EA1-4817-8A52-DBF5704FE261}">
+      <formula1>диммирование</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1386ADDB-8B41-479B-8360-24D6254CD3BF}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="12">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="12">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>250</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>251</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>252</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>253</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>254</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>255</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>257</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>258</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>259</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>261</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>262</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>263</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>264</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>268</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>269</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>270</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>271</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>272</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>273</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="9">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A6:D32">
+    <sortCondition ref="A6"/>
+  </sortState>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{CE38D225-BE73-427E-BBB3-45143B0E97E2}">
+      <formula1>диммирование</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>